--- a/ProcessSimulator/N=50 Graphs.xlsx
+++ b/ProcessSimulator/N=50 Graphs.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A205182-B1F1-49B2-9CAB-F439E6789362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13BE686-0166-453E-A8AF-3C19C7DBA217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>Input</t>
   </si>
@@ -37,6 +45,9 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -2654,307 +2665,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>5350</c:v>
+                  <c:v>3545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38116</c:v>
+                  <c:v>19146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5500</c:v>
+                  <c:v>3696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6149</c:v>
+                  <c:v>4227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72293</c:v>
+                  <c:v>6275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11204</c:v>
+                  <c:v>4432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7571</c:v>
+                  <c:v>43763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70720</c:v>
+                  <c:v>4032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9024</c:v>
+                  <c:v>2726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83572</c:v>
+                  <c:v>3545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7172</c:v>
+                  <c:v>50076</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60493</c:v>
+                  <c:v>5495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10339</c:v>
+                  <c:v>3475</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10726</c:v>
+                  <c:v>2953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67514</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61964</c:v>
+                  <c:v>3552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7886</c:v>
+                  <c:v>3851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66944</c:v>
+                  <c:v>6991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11440</c:v>
+                  <c:v>5360</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61013</c:v>
+                  <c:v>4306</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8532</c:v>
+                  <c:v>4795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8953</c:v>
+                  <c:v>3214</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82184</c:v>
+                  <c:v>52782</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8769</c:v>
+                  <c:v>5062</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75714</c:v>
+                  <c:v>3776</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9752</c:v>
+                  <c:v>3183</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9515</c:v>
+                  <c:v>45195</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69165</c:v>
+                  <c:v>4751</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9261</c:v>
+                  <c:v>3826</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>71632</c:v>
+                  <c:v>3030</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8877</c:v>
+                  <c:v>49970</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>89653</c:v>
+                  <c:v>3055</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28169</c:v>
+                  <c:v>3277</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9282</c:v>
+                  <c:v>3640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78385</c:v>
+                  <c:v>4549</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9426</c:v>
+                  <c:v>56421</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>69496</c:v>
+                  <c:v>3394</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59228</c:v>
+                  <c:v>7542</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13537</c:v>
+                  <c:v>55505</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>66025</c:v>
+                  <c:v>3813</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13648</c:v>
+                  <c:v>3493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68015</c:v>
+                  <c:v>3126</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11882</c:v>
+                  <c:v>35599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>75058</c:v>
+                  <c:v>5382</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8700</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>71707</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10140</c:v>
+                  <c:v>3868</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>72336</c:v>
+                  <c:v>51182</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8781</c:v>
+                  <c:v>2523</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>80748</c:v>
+                  <c:v>4510</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18006</c:v>
+                  <c:v>3846</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47386</c:v>
+                  <c:v>55890</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13931</c:v>
+                  <c:v>6287</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77110</c:v>
+                  <c:v>5367</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7554</c:v>
+                  <c:v>38317</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8893</c:v>
+                  <c:v>3658</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>81839</c:v>
+                  <c:v>3765</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12414</c:v>
+                  <c:v>3794</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>72813</c:v>
+                  <c:v>59817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9674</c:v>
+                  <c:v>9338</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>69107</c:v>
+                  <c:v>3113</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6934</c:v>
+                  <c:v>3585</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9363</c:v>
+                  <c:v>45454</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>77299</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6831</c:v>
+                  <c:v>4126</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8641</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>60801</c:v>
+                  <c:v>54755</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10821</c:v>
+                  <c:v>4165</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>74631</c:v>
+                  <c:v>3614</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9192</c:v>
+                  <c:v>3084</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9165</c:v>
+                  <c:v>42139</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>62461</c:v>
+                  <c:v>8622</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15197</c:v>
+                  <c:v>4484</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62587</c:v>
+                  <c:v>42231</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6469</c:v>
+                  <c:v>7289</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>60595</c:v>
+                  <c:v>3758</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8629</c:v>
+                  <c:v>3811</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>65843</c:v>
+                  <c:v>44471</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9800</c:v>
+                  <c:v>7302</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8305</c:v>
+                  <c:v>4269</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53646</c:v>
+                  <c:v>40995</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11121</c:v>
+                  <c:v>3428</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>76319</c:v>
+                  <c:v>4540</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12565</c:v>
+                  <c:v>6411</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8208</c:v>
+                  <c:v>45610</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>62875</c:v>
+                  <c:v>2921</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>62068</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6690</c:v>
+                  <c:v>5603</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9181</c:v>
+                  <c:v>3113</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>62962</c:v>
+                  <c:v>54716</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6417</c:v>
+                  <c:v>3436</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7007</c:v>
+                  <c:v>3801</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>71722</c:v>
+                  <c:v>4406</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6999</c:v>
+                  <c:v>4112</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7034</c:v>
+                  <c:v>51125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>78804</c:v>
+                  <c:v>5191</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6745</c:v>
+                  <c:v>3430</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6495</c:v>
+                  <c:v>3437</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6417</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7007</c:v>
+                  <c:v>5603</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7034</c:v>
+                  <c:v>3113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,307 +5857,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>43.297699999999999</c:v>
+                  <c:v>41.011899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.7743</c:v>
+                  <c:v>32.280700000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.789400000000001</c:v>
+                  <c:v>36.278500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.798400000000001</c:v>
+                  <c:v>39.114899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.871600000000001</c:v>
+                  <c:v>31.734000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.481400000000001</c:v>
+                  <c:v>37.6252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.521999999999998</c:v>
+                  <c:v>33.2438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.397300000000001</c:v>
+                  <c:v>37.7134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.540199999999999</c:v>
+                  <c:v>31.031400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.7804</c:v>
+                  <c:v>36.357399999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.030200000000001</c:v>
+                  <c:v>31.36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.091500000000003</c:v>
+                  <c:v>42.8626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.340800000000002</c:v>
+                  <c:v>31.4603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.820700000000002</c:v>
+                  <c:v>36.149000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.029800000000002</c:v>
+                  <c:v>29.0976</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.367899999999999</c:v>
+                  <c:v>32.203899999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.3748</c:v>
+                  <c:v>29.5563</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.775399999999998</c:v>
+                  <c:v>32.7376</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.857599999999998</c:v>
+                  <c:v>36.979700000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.348100000000002</c:v>
+                  <c:v>33.260599999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.159199999999998</c:v>
+                  <c:v>44.026499999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.224899999999998</c:v>
+                  <c:v>32.696100000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.1218</c:v>
+                  <c:v>35.287199999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.320300000000003</c:v>
+                  <c:v>36.5334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.380200000000002</c:v>
+                  <c:v>36.657800000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.354599999999998</c:v>
+                  <c:v>40.077199999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.521299999999997</c:v>
+                  <c:v>32.605200000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.183399999999999</c:v>
+                  <c:v>41.2849</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.191299999999998</c:v>
+                  <c:v>36.338900000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37.528599999999997</c:v>
+                  <c:v>36.671300000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38.423999999999999</c:v>
+                  <c:v>35.643300000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.307300000000001</c:v>
+                  <c:v>28.921600000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46.9617</c:v>
+                  <c:v>45.794699999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35.450899999999997</c:v>
+                  <c:v>36.938699999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48.089100000000002</c:v>
+                  <c:v>44.7363</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.029600000000002</c:v>
+                  <c:v>37.465899999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.468899999999998</c:v>
+                  <c:v>37.807499999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.247599999999998</c:v>
+                  <c:v>33.610599999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.397399999999998</c:v>
+                  <c:v>35.973599999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.529000000000003</c:v>
+                  <c:v>35.061700000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.753799999999998</c:v>
+                  <c:v>47.369199999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.191400000000002</c:v>
+                  <c:v>31.570499999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.748199999999997</c:v>
+                  <c:v>35.284100000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.1327</c:v>
+                  <c:v>36.543199999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.161200000000001</c:v>
+                  <c:v>36.948700000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.175199999999997</c:v>
+                  <c:v>37.377000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.758299999999998</c:v>
+                  <c:v>32.155200000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.4876</c:v>
+                  <c:v>32.323399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>36.309199999999997</c:v>
+                  <c:v>35.352899999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.715600000000002</c:v>
+                  <c:v>40.433900000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.025399999999998</c:v>
+                  <c:v>37.002400000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.991999999999997</c:v>
+                  <c:v>33.686300000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>35.293900000000001</c:v>
+                  <c:v>34.157800000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>34.631399999999999</c:v>
+                  <c:v>34.518999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>40.971699999999998</c:v>
+                  <c:v>37.038200000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.762099999999997</c:v>
+                  <c:v>37.026800000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>34.871600000000001</c:v>
+                  <c:v>34.199399999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>29.9849</c:v>
+                  <c:v>28.0929</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>36.807400000000001</c:v>
+                  <c:v>36.932699999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35.539900000000003</c:v>
+                  <c:v>34.133099999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.155500000000004</c:v>
+                  <c:v>40.124899999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36.041899999999998</c:v>
+                  <c:v>34.498699999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>46.314300000000003</c:v>
+                  <c:v>46.630699999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>35.101199999999999</c:v>
+                  <c:v>35.323500000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>34.158099999999997</c:v>
+                  <c:v>30.527899999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39.280900000000003</c:v>
+                  <c:v>38.4099</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>38.575099999999999</c:v>
+                  <c:v>37.8504</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>31.622499999999999</c:v>
+                  <c:v>30.263100000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37.315600000000003</c:v>
+                  <c:v>35.120600000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>38.264200000000002</c:v>
+                  <c:v>36.021299999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>31.2653</c:v>
+                  <c:v>29.7943</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38.217500000000001</c:v>
+                  <c:v>37.924500000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>37.766100000000002</c:v>
+                  <c:v>35.363999999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.396999999999998</c:v>
+                  <c:v>34.036999999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41.095700000000001</c:v>
+                  <c:v>42.238700000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>33.176400000000001</c:v>
+                  <c:v>34.439900000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>38.878399999999999</c:v>
+                  <c:v>35.805999999999997</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>37.1526</c:v>
+                  <c:v>38.265900000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>46.334299999999999</c:v>
+                  <c:v>42.805399999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>35.525799999999997</c:v>
+                  <c:v>33.776000000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>37.627800000000001</c:v>
+                  <c:v>34.292299999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>38.470399999999998</c:v>
+                  <c:v>37.761899999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42.377600000000001</c:v>
+                  <c:v>37.375100000000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42.083599999999997</c:v>
+                  <c:v>40.4191</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>41.343600000000002</c:v>
+                  <c:v>41.423299999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>37.107199999999999</c:v>
+                  <c:v>36.135100000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.057300000000001</c:v>
+                  <c:v>27.462599999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>38.541699999999999</c:v>
+                  <c:v>38.561399999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>39.719700000000003</c:v>
+                  <c:v>36.968299999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42.302199999999999</c:v>
+                  <c:v>39.047800000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>31.978100000000001</c:v>
+                  <c:v>33.461199999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>38.9542</c:v>
+                  <c:v>34.061900000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>30.373999999999999</c:v>
+                  <c:v>31.630199999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42.781199999999998</c:v>
+                  <c:v>41.616599999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>38.162399999999998</c:v>
+                  <c:v>37.898800000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>35.435000000000002</c:v>
+                  <c:v>33.229199999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>37.985500000000002</c:v>
+                  <c:v>35.718699999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>35.906199999999998</c:v>
+                  <c:v>33.717300000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>31.978100000000001</c:v>
+                  <c:v>27.462599999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>38.9542</c:v>
+                  <c:v>38.561399999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>38.162399999999998</c:v>
+                  <c:v>36.968299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,13 +7583,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7608,13 +7619,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7908,10 +7919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM102"/>
+  <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="Y130" sqref="Y130"/>
+    <sheetView tabSelected="1" topLeftCell="L67" workbookViewId="0">
+      <selection activeCell="AM103" sqref="AM103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8103,13 +8114,13 @@
         <v>8</v>
       </c>
       <c r="AK2">
-        <v>170.8</v>
+        <v>138.22</v>
       </c>
       <c r="AL2">
-        <v>43.297699999999999</v>
+        <v>41.011899999999997</v>
       </c>
       <c r="AM2">
-        <v>5350</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -8201,13 +8212,13 @@
         <v>8</v>
       </c>
       <c r="AK3">
-        <v>204.5</v>
+        <v>177.52</v>
       </c>
       <c r="AL3">
-        <v>31.7743</v>
+        <v>32.280700000000003</v>
       </c>
       <c r="AM3">
-        <v>38116</v>
+        <v>19146</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -8299,13 +8310,13 @@
         <v>8</v>
       </c>
       <c r="AK4">
-        <v>201.42</v>
+        <v>169.58</v>
       </c>
       <c r="AL4">
-        <v>35.789400000000001</v>
+        <v>36.278500000000001</v>
       </c>
       <c r="AM4">
-        <v>5500</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -8397,13 +8408,13 @@
         <v>8</v>
       </c>
       <c r="AK5">
-        <v>216.46</v>
+        <v>175.02</v>
       </c>
       <c r="AL5">
-        <v>39.798400000000001</v>
+        <v>39.114899999999999</v>
       </c>
       <c r="AM5">
-        <v>6149</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -8495,13 +8506,13 @@
         <v>8</v>
       </c>
       <c r="AK6">
-        <v>185.36</v>
+        <v>147.32</v>
       </c>
       <c r="AL6">
-        <v>32.871600000000001</v>
+        <v>31.734000000000002</v>
       </c>
       <c r="AM6">
-        <v>72293</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -8593,13 +8604,13 @@
         <v>8</v>
       </c>
       <c r="AK7">
-        <v>214.16</v>
+        <v>170.62</v>
       </c>
       <c r="AL7">
-        <v>37.481400000000001</v>
+        <v>37.6252</v>
       </c>
       <c r="AM7">
-        <v>11204</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -8691,13 +8702,13 @@
         <v>8</v>
       </c>
       <c r="AK8">
-        <v>226.22</v>
+        <v>161.24</v>
       </c>
       <c r="AL8">
-        <v>34.521999999999998</v>
+        <v>33.2438</v>
       </c>
       <c r="AM8">
-        <v>7571</v>
+        <v>43763</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -8789,13 +8800,13 @@
         <v>8</v>
       </c>
       <c r="AK9">
-        <v>193.46</v>
+        <v>149.38</v>
       </c>
       <c r="AL9">
-        <v>37.397300000000001</v>
+        <v>37.7134</v>
       </c>
       <c r="AM9">
-        <v>70720</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -8887,13 +8898,13 @@
         <v>8</v>
       </c>
       <c r="AK10">
-        <v>157.36000000000001</v>
+        <v>123.62</v>
       </c>
       <c r="AL10">
-        <v>32.540199999999999</v>
+        <v>31.031400000000001</v>
       </c>
       <c r="AM10">
-        <v>9024</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -8985,13 +8996,13 @@
         <v>8</v>
       </c>
       <c r="AK11">
-        <v>168.46</v>
+        <v>130.13999999999999</v>
       </c>
       <c r="AL11">
-        <v>36.7804</v>
+        <v>36.357399999999998</v>
       </c>
       <c r="AM11">
-        <v>83572</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -9083,13 +9094,13 @@
         <v>8</v>
       </c>
       <c r="AK12">
-        <v>186.9</v>
+        <v>145.88</v>
       </c>
       <c r="AL12">
-        <v>32.030200000000001</v>
+        <v>31.36</v>
       </c>
       <c r="AM12">
-        <v>7172</v>
+        <v>50076</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -9181,13 +9192,13 @@
         <v>8</v>
       </c>
       <c r="AK13">
-        <v>228.08</v>
+        <v>174.56</v>
       </c>
       <c r="AL13">
-        <v>42.091500000000003</v>
+        <v>42.8626</v>
       </c>
       <c r="AM13">
-        <v>60493</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -9279,13 +9290,13 @@
         <v>8</v>
       </c>
       <c r="AK14">
-        <v>218.94</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="AL14">
-        <v>34.340800000000002</v>
+        <v>31.4603</v>
       </c>
       <c r="AM14">
-        <v>10339</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -9377,13 +9388,13 @@
         <v>8</v>
       </c>
       <c r="AK15">
-        <v>193.2</v>
+        <v>135.54</v>
       </c>
       <c r="AL15">
-        <v>39.820700000000002</v>
+        <v>36.149000000000001</v>
       </c>
       <c r="AM15">
-        <v>10726</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -9475,13 +9486,13 @@
         <v>8</v>
       </c>
       <c r="AK16">
-        <v>191.82</v>
+        <v>126.58</v>
       </c>
       <c r="AL16">
-        <v>33.029800000000002</v>
+        <v>29.0976</v>
       </c>
       <c r="AM16">
-        <v>67514</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -9573,13 +9584,13 @@
         <v>8</v>
       </c>
       <c r="AK17">
-        <v>252.5</v>
+        <v>189.82</v>
       </c>
       <c r="AL17">
-        <v>35.367899999999999</v>
+        <v>32.203899999999997</v>
       </c>
       <c r="AM17">
-        <v>61964</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -9671,13 +9682,13 @@
         <v>8</v>
       </c>
       <c r="AK18">
-        <v>180.02</v>
+        <v>132.47999999999999</v>
       </c>
       <c r="AL18">
-        <v>30.3748</v>
+        <v>29.5563</v>
       </c>
       <c r="AM18">
-        <v>7886</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
@@ -9769,13 +9780,13 @@
         <v>8</v>
       </c>
       <c r="AK19">
-        <v>202.76</v>
+        <v>160.13999999999999</v>
       </c>
       <c r="AL19">
-        <v>32.775399999999998</v>
+        <v>32.7376</v>
       </c>
       <c r="AM19">
-        <v>66944</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
@@ -9867,13 +9878,13 @@
         <v>8</v>
       </c>
       <c r="AK20">
-        <v>208</v>
+        <v>160.28</v>
       </c>
       <c r="AL20">
-        <v>37.857599999999998</v>
+        <v>36.979700000000001</v>
       </c>
       <c r="AM20">
-        <v>11440</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -9965,13 +9976,13 @@
         <v>8</v>
       </c>
       <c r="AK21">
-        <v>205.06</v>
+        <v>161.46</v>
       </c>
       <c r="AL21">
-        <v>35.348100000000002</v>
+        <v>33.260599999999997</v>
       </c>
       <c r="AM21">
-        <v>61013</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -10063,13 +10074,13 @@
         <v>8</v>
       </c>
       <c r="AK22">
-        <v>209.2</v>
+        <v>183.5</v>
       </c>
       <c r="AL22">
-        <v>41.159199999999998</v>
+        <v>44.026499999999999</v>
       </c>
       <c r="AM22">
-        <v>8532</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
@@ -10161,13 +10172,13 @@
         <v>8</v>
       </c>
       <c r="AK23">
-        <v>211.88</v>
+        <v>157.26</v>
       </c>
       <c r="AL23">
-        <v>36.224899999999998</v>
+        <v>32.696100000000001</v>
       </c>
       <c r="AM23">
-        <v>8953</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
@@ -10259,13 +10270,13 @@
         <v>8</v>
       </c>
       <c r="AK24">
-        <v>234.06</v>
+        <v>185.24</v>
       </c>
       <c r="AL24">
-        <v>36.1218</v>
+        <v>35.287199999999999</v>
       </c>
       <c r="AM24">
-        <v>82184</v>
+        <v>52782</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
@@ -10357,13 +10368,13 @@
         <v>8</v>
       </c>
       <c r="AK25">
-        <v>208.08</v>
+        <v>148.24</v>
       </c>
       <c r="AL25">
-        <v>37.320300000000003</v>
+        <v>36.5334</v>
       </c>
       <c r="AM25">
-        <v>8769</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -10455,13 +10466,13 @@
         <v>8</v>
       </c>
       <c r="AK26">
-        <v>204.94</v>
+        <v>146.47999999999999</v>
       </c>
       <c r="AL26">
-        <v>39.380200000000002</v>
+        <v>36.657800000000002</v>
       </c>
       <c r="AM26">
-        <v>75714</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
@@ -10553,13 +10564,13 @@
         <v>8</v>
       </c>
       <c r="AK27">
-        <v>205.9</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="AL27">
-        <v>40.354599999999998</v>
+        <v>40.077199999999998</v>
       </c>
       <c r="AM27">
-        <v>9752</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
@@ -10651,13 +10662,13 @@
         <v>8</v>
       </c>
       <c r="AK28">
-        <v>210.22</v>
+        <v>166.18</v>
       </c>
       <c r="AL28">
-        <v>32.521299999999997</v>
+        <v>32.605200000000004</v>
       </c>
       <c r="AM28">
-        <v>9515</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -10749,13 +10760,13 @@
         <v>8</v>
       </c>
       <c r="AK29">
-        <v>206.04</v>
+        <v>171.36</v>
       </c>
       <c r="AL29">
-        <v>41.183399999999999</v>
+        <v>41.2849</v>
       </c>
       <c r="AM29">
-        <v>69165</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
@@ -10847,13 +10858,13 @@
         <v>8</v>
       </c>
       <c r="AK30">
-        <v>234.9</v>
+        <v>189.52</v>
       </c>
       <c r="AL30">
-        <v>35.191299999999998</v>
+        <v>36.338900000000002</v>
       </c>
       <c r="AM30">
-        <v>9261</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -10945,13 +10956,13 @@
         <v>8</v>
       </c>
       <c r="AK31">
-        <v>195.7</v>
+        <v>142.72</v>
       </c>
       <c r="AL31">
-        <v>37.528599999999997</v>
+        <v>36.671300000000002</v>
       </c>
       <c r="AM31">
-        <v>71632</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
@@ -11043,13 +11054,13 @@
         <v>8</v>
       </c>
       <c r="AK32">
-        <v>224.42</v>
+        <v>161.94</v>
       </c>
       <c r="AL32">
-        <v>38.423999999999999</v>
+        <v>35.643300000000004</v>
       </c>
       <c r="AM32">
-        <v>8877</v>
+        <v>49970</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
@@ -11141,13 +11152,13 @@
         <v>8</v>
       </c>
       <c r="AK33">
-        <v>194.14</v>
+        <v>129.56</v>
       </c>
       <c r="AL33">
-        <v>30.307300000000001</v>
+        <v>28.921600000000002</v>
       </c>
       <c r="AM33">
-        <v>89653</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -11239,13 +11250,13 @@
         <v>8</v>
       </c>
       <c r="AK34">
-        <v>214.4</v>
+        <v>158.18</v>
       </c>
       <c r="AL34">
-        <v>46.9617</v>
+        <v>45.794699999999999</v>
       </c>
       <c r="AM34">
-        <v>28169</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
@@ -11337,13 +11348,13 @@
         <v>8</v>
       </c>
       <c r="AK35">
-        <v>210.24</v>
+        <v>171.56</v>
       </c>
       <c r="AL35">
-        <v>35.450899999999997</v>
+        <v>36.938699999999997</v>
       </c>
       <c r="AM35">
-        <v>9282</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
@@ -11435,13 +11446,13 @@
         <v>8</v>
       </c>
       <c r="AK36">
-        <v>188.26</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="AL36">
-        <v>48.089100000000002</v>
+        <v>44.7363</v>
       </c>
       <c r="AM36">
-        <v>78385</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
@@ -11533,13 +11544,13 @@
         <v>8</v>
       </c>
       <c r="AK37">
-        <v>206.88</v>
+        <v>164.52</v>
       </c>
       <c r="AL37">
-        <v>38.029600000000002</v>
+        <v>37.465899999999998</v>
       </c>
       <c r="AM37">
-        <v>9426</v>
+        <v>56421</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
@@ -11631,13 +11642,13 @@
         <v>8</v>
       </c>
       <c r="AK38">
-        <v>224.44</v>
+        <v>172.48</v>
       </c>
       <c r="AL38">
-        <v>37.468899999999998</v>
+        <v>37.807499999999997</v>
       </c>
       <c r="AM38">
-        <v>69496</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
@@ -11729,13 +11740,13 @@
         <v>8</v>
       </c>
       <c r="AK39">
-        <v>241.14</v>
+        <v>180.6</v>
       </c>
       <c r="AL39">
-        <v>36.247599999999998</v>
+        <v>33.610599999999998</v>
       </c>
       <c r="AM39">
-        <v>59228</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
@@ -11827,13 +11838,13 @@
         <v>8</v>
       </c>
       <c r="AK40">
-        <v>237.22</v>
+        <v>168.18</v>
       </c>
       <c r="AL40">
-        <v>37.397399999999998</v>
+        <v>35.973599999999998</v>
       </c>
       <c r="AM40">
-        <v>13537</v>
+        <v>55505</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
@@ -11925,13 +11936,13 @@
         <v>8</v>
       </c>
       <c r="AK41">
-        <v>184.6</v>
+        <v>129</v>
       </c>
       <c r="AL41">
-        <v>37.529000000000003</v>
+        <v>35.061700000000002</v>
       </c>
       <c r="AM41">
-        <v>66025</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
@@ -12023,13 +12034,13 @@
         <v>8</v>
       </c>
       <c r="AK42">
-        <v>190.26</v>
+        <v>157.44</v>
       </c>
       <c r="AL42">
-        <v>46.753799999999998</v>
+        <v>47.369199999999999</v>
       </c>
       <c r="AM42">
-        <v>13648</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
@@ -12121,13 +12132,13 @@
         <v>8</v>
       </c>
       <c r="AK43">
-        <v>176.48</v>
+        <v>123.64</v>
       </c>
       <c r="AL43">
-        <v>35.191400000000002</v>
+        <v>31.570499999999999</v>
       </c>
       <c r="AM43">
-        <v>68015</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -12219,13 +12230,13 @@
         <v>8</v>
       </c>
       <c r="AK44">
-        <v>238.5</v>
+        <v>174.3</v>
       </c>
       <c r="AL44">
-        <v>37.748199999999997</v>
+        <v>35.284100000000002</v>
       </c>
       <c r="AM44">
-        <v>11882</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -12317,13 +12328,13 @@
         <v>8</v>
       </c>
       <c r="AK45">
-        <v>207.74</v>
+        <v>161.36000000000001</v>
       </c>
       <c r="AL45">
-        <v>37.1327</v>
+        <v>36.543199999999999</v>
       </c>
       <c r="AM45">
-        <v>75058</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
@@ -12415,13 +12426,13 @@
         <v>8</v>
       </c>
       <c r="AK46">
-        <v>169.98</v>
+        <v>131.78</v>
       </c>
       <c r="AL46">
-        <v>38.161200000000001</v>
+        <v>36.948700000000002</v>
       </c>
       <c r="AM46">
-        <v>8700</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
@@ -12513,13 +12524,13 @@
         <v>8</v>
       </c>
       <c r="AK47">
-        <v>196.82</v>
+        <v>127.02</v>
       </c>
       <c r="AL47">
-        <v>42.175199999999997</v>
+        <v>37.377000000000002</v>
       </c>
       <c r="AM47">
-        <v>71707</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
@@ -12611,13 +12622,13 @@
         <v>8</v>
       </c>
       <c r="AK48">
-        <v>223.74</v>
+        <v>174.24</v>
       </c>
       <c r="AL48">
-        <v>31.758299999999998</v>
+        <v>32.155200000000001</v>
       </c>
       <c r="AM48">
-        <v>10140</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
@@ -12709,13 +12720,13 @@
         <v>8</v>
       </c>
       <c r="AK49">
-        <v>220.28</v>
+        <v>150.88</v>
       </c>
       <c r="AL49">
-        <v>35.4876</v>
+        <v>32.323399999999999</v>
       </c>
       <c r="AM49">
-        <v>72336</v>
+        <v>51182</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
@@ -12807,13 +12818,13 @@
         <v>8</v>
       </c>
       <c r="AK50">
-        <v>226.76</v>
+        <v>173.3</v>
       </c>
       <c r="AL50">
-        <v>36.309199999999997</v>
+        <v>35.352899999999998</v>
       </c>
       <c r="AM50">
-        <v>8781</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
@@ -12905,13 +12916,13 @@
         <v>8</v>
       </c>
       <c r="AK51">
-        <v>247.38</v>
+        <v>177.92</v>
       </c>
       <c r="AL51">
-        <v>42.715600000000002</v>
+        <v>40.433900000000001</v>
       </c>
       <c r="AM51">
-        <v>80748</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
@@ -13003,13 +13014,13 @@
         <v>8</v>
       </c>
       <c r="AK52">
-        <v>211.14</v>
+        <v>165.5</v>
       </c>
       <c r="AL52">
-        <v>37.025399999999998</v>
+        <v>37.002400000000002</v>
       </c>
       <c r="AM52">
-        <v>18006</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
@@ -13101,13 +13112,13 @@
         <v>8</v>
       </c>
       <c r="AK53">
-        <v>194.64</v>
+        <v>143.34</v>
       </c>
       <c r="AL53">
-        <v>34.991999999999997</v>
+        <v>33.686300000000003</v>
       </c>
       <c r="AM53">
-        <v>47386</v>
+        <v>55890</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
@@ -13199,13 +13210,13 @@
         <v>8</v>
       </c>
       <c r="AK54">
-        <v>208.28</v>
+        <v>156.18</v>
       </c>
       <c r="AL54">
-        <v>35.293900000000001</v>
+        <v>34.157800000000002</v>
       </c>
       <c r="AM54">
-        <v>13931</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
@@ -13297,13 +13308,13 @@
         <v>8</v>
       </c>
       <c r="AK55">
-        <v>237.08</v>
+        <v>196.22</v>
       </c>
       <c r="AL55">
-        <v>34.631399999999999</v>
+        <v>34.518999999999998</v>
       </c>
       <c r="AM55">
-        <v>77110</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
@@ -13395,13 +13406,13 @@
         <v>8</v>
       </c>
       <c r="AK56">
-        <v>239.76</v>
+        <v>177.94</v>
       </c>
       <c r="AL56">
-        <v>40.971699999999998</v>
+        <v>37.038200000000003</v>
       </c>
       <c r="AM56">
-        <v>7554</v>
+        <v>38317</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
@@ -13493,13 +13504,13 @@
         <v>8</v>
       </c>
       <c r="AK57">
-        <v>230.14</v>
+        <v>178.16</v>
       </c>
       <c r="AL57">
-        <v>39.762099999999997</v>
+        <v>37.026800000000001</v>
       </c>
       <c r="AM57">
-        <v>8893</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
@@ -13591,13 +13602,13 @@
         <v>8</v>
       </c>
       <c r="AK58">
-        <v>194.06</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="AL58">
-        <v>34.871600000000001</v>
+        <v>34.199399999999997</v>
       </c>
       <c r="AM58">
-        <v>81839</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
@@ -13689,13 +13700,13 @@
         <v>8</v>
       </c>
       <c r="AK59">
-        <v>202.24</v>
+        <v>159.68</v>
       </c>
       <c r="AL59">
-        <v>29.9849</v>
+        <v>28.0929</v>
       </c>
       <c r="AM59">
-        <v>12414</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
@@ -13787,13 +13798,13 @@
         <v>8</v>
       </c>
       <c r="AK60">
-        <v>205.46</v>
+        <v>165.1</v>
       </c>
       <c r="AL60">
-        <v>36.807400000000001</v>
+        <v>36.932699999999997</v>
       </c>
       <c r="AM60">
-        <v>72813</v>
+        <v>59817</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
@@ -13885,13 +13896,13 @@
         <v>8</v>
       </c>
       <c r="AK61">
-        <v>245.8</v>
+        <v>192.5</v>
       </c>
       <c r="AL61">
-        <v>35.539900000000003</v>
+        <v>34.133099999999999</v>
       </c>
       <c r="AM61">
-        <v>9674</v>
+        <v>9338</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
@@ -13983,13 +13994,13 @@
         <v>8</v>
       </c>
       <c r="AK62">
-        <v>216.54</v>
+        <v>152.02000000000001</v>
       </c>
       <c r="AL62">
-        <v>43.155500000000004</v>
+        <v>40.124899999999997</v>
       </c>
       <c r="AM62">
-        <v>69107</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
@@ -14081,13 +14092,13 @@
         <v>8</v>
       </c>
       <c r="AK63">
-        <v>183.5</v>
+        <v>141.41999999999999</v>
       </c>
       <c r="AL63">
-        <v>36.041899999999998</v>
+        <v>34.498699999999999</v>
       </c>
       <c r="AM63">
-        <v>6934</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
@@ -14179,13 +14190,13 @@
         <v>8</v>
       </c>
       <c r="AK64">
-        <v>228.28</v>
+        <v>191.18</v>
       </c>
       <c r="AL64">
-        <v>46.314300000000003</v>
+        <v>46.630699999999997</v>
       </c>
       <c r="AM64">
-        <v>9363</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
@@ -14277,13 +14288,13 @@
         <v>8</v>
       </c>
       <c r="AK65">
-        <v>176.74</v>
+        <v>141.44</v>
       </c>
       <c r="AL65">
-        <v>35.101199999999999</v>
+        <v>35.323500000000003</v>
       </c>
       <c r="AM65">
-        <v>77299</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
@@ -14375,13 +14386,13 @@
         <v>8</v>
       </c>
       <c r="AK66">
-        <v>198.52</v>
+        <v>137</v>
       </c>
       <c r="AL66">
-        <v>34.158099999999997</v>
+        <v>30.527899999999999</v>
       </c>
       <c r="AM66">
-        <v>6831</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
@@ -14473,13 +14484,13 @@
         <v>8</v>
       </c>
       <c r="AK67">
-        <v>248.88</v>
+        <v>189</v>
       </c>
       <c r="AL67">
-        <v>39.280900000000003</v>
+        <v>38.4099</v>
       </c>
       <c r="AM67">
-        <v>8641</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
@@ -14571,13 +14582,13 @@
         <v>8</v>
       </c>
       <c r="AK68">
-        <v>209.7</v>
+        <v>172.8</v>
       </c>
       <c r="AL68">
-        <v>38.575099999999999</v>
+        <v>37.8504</v>
       </c>
       <c r="AM68">
-        <v>60801</v>
+        <v>54755</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
@@ -14669,13 +14680,13 @@
         <v>8</v>
       </c>
       <c r="AK69">
-        <v>168.18</v>
+        <v>125.5</v>
       </c>
       <c r="AL69">
-        <v>31.622499999999999</v>
+        <v>30.263100000000001</v>
       </c>
       <c r="AM69">
-        <v>10821</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
@@ -14767,13 +14778,13 @@
         <v>8</v>
       </c>
       <c r="AK70">
-        <v>213.52</v>
+        <v>156.58000000000001</v>
       </c>
       <c r="AL70">
-        <v>37.315600000000003</v>
+        <v>35.120600000000003</v>
       </c>
       <c r="AM70">
-        <v>74631</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
@@ -14865,13 +14876,13 @@
         <v>8</v>
       </c>
       <c r="AK71">
-        <v>207.7</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="AL71">
-        <v>38.264200000000002</v>
+        <v>36.021299999999997</v>
       </c>
       <c r="AM71">
-        <v>9192</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
@@ -14963,13 +14974,13 @@
         <v>8</v>
       </c>
       <c r="AK72">
-        <v>195.14</v>
+        <v>154.24</v>
       </c>
       <c r="AL72">
-        <v>31.2653</v>
+        <v>29.7943</v>
       </c>
       <c r="AM72">
-        <v>9165</v>
+        <v>42139</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
@@ -15061,13 +15072,13 @@
         <v>8</v>
       </c>
       <c r="AK73">
-        <v>214.66</v>
+        <v>177.56</v>
       </c>
       <c r="AL73">
-        <v>38.217500000000001</v>
+        <v>37.924500000000002</v>
       </c>
       <c r="AM73">
-        <v>62461</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
@@ -15159,13 +15170,13 @@
         <v>8</v>
       </c>
       <c r="AK74">
-        <v>208.34</v>
+        <v>154.44</v>
       </c>
       <c r="AL74">
-        <v>37.766100000000002</v>
+        <v>35.363999999999997</v>
       </c>
       <c r="AM74">
-        <v>15197</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
@@ -15257,13 +15268,13 @@
         <v>8</v>
       </c>
       <c r="AK75">
-        <v>198.2</v>
+        <v>146.94</v>
       </c>
       <c r="AL75">
-        <v>37.396999999999998</v>
+        <v>34.036999999999999</v>
       </c>
       <c r="AM75">
-        <v>62587</v>
+        <v>42231</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
@@ -15355,13 +15366,13 @@
         <v>8</v>
       </c>
       <c r="AK76">
-        <v>184.96</v>
+        <v>151.4</v>
       </c>
       <c r="AL76">
-        <v>41.095700000000001</v>
+        <v>42.238700000000001</v>
       </c>
       <c r="AM76">
-        <v>6469</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
@@ -15453,13 +15464,13 @@
         <v>8</v>
       </c>
       <c r="AK77">
-        <v>191.26</v>
+        <v>161.5</v>
       </c>
       <c r="AL77">
-        <v>33.176400000000001</v>
+        <v>34.439900000000002</v>
       </c>
       <c r="AM77">
-        <v>60595</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
@@ -15551,13 +15562,13 @@
         <v>8</v>
       </c>
       <c r="AK78">
-        <v>212.82</v>
+        <v>159.94</v>
       </c>
       <c r="AL78">
-        <v>38.878399999999999</v>
+        <v>35.805999999999997</v>
       </c>
       <c r="AM78">
-        <v>8629</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
@@ -15649,13 +15660,13 @@
         <v>8</v>
       </c>
       <c r="AK79">
-        <v>213.8</v>
+        <v>183.74</v>
       </c>
       <c r="AL79">
-        <v>37.1526</v>
+        <v>38.265900000000002</v>
       </c>
       <c r="AM79">
-        <v>65843</v>
+        <v>44471</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
@@ -15747,13 +15758,13 @@
         <v>8</v>
       </c>
       <c r="AK80">
-        <v>211.38</v>
+        <v>155.16</v>
       </c>
       <c r="AL80">
-        <v>46.334299999999999</v>
+        <v>42.805399999999999</v>
       </c>
       <c r="AM80">
-        <v>9800</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
@@ -15845,13 +15856,13 @@
         <v>8</v>
       </c>
       <c r="AK81">
-        <v>181.46</v>
+        <v>133.5</v>
       </c>
       <c r="AL81">
-        <v>35.525799999999997</v>
+        <v>33.776000000000003</v>
       </c>
       <c r="AM81">
-        <v>8305</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
@@ -15943,13 +15954,13 @@
         <v>8</v>
       </c>
       <c r="AK82">
-        <v>171.4</v>
+        <v>127.66</v>
       </c>
       <c r="AL82">
-        <v>37.627800000000001</v>
+        <v>34.292299999999997</v>
       </c>
       <c r="AM82">
-        <v>53646</v>
+        <v>40995</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
@@ -16041,13 +16052,13 @@
         <v>8</v>
       </c>
       <c r="AK83">
-        <v>171.3</v>
+        <v>139.66</v>
       </c>
       <c r="AL83">
-        <v>38.470399999999998</v>
+        <v>37.761899999999997</v>
       </c>
       <c r="AM83">
-        <v>11121</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
@@ -16139,13 +16150,13 @@
         <v>8</v>
       </c>
       <c r="AK84">
-        <v>247.14</v>
+        <v>185.22</v>
       </c>
       <c r="AL84">
-        <v>42.377600000000001</v>
+        <v>37.375100000000003</v>
       </c>
       <c r="AM84">
-        <v>76319</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
@@ -16237,13 +16248,13 @@
         <v>8</v>
       </c>
       <c r="AK85">
-        <v>199.36</v>
+        <v>156.22</v>
       </c>
       <c r="AL85">
-        <v>42.083599999999997</v>
+        <v>40.4191</v>
       </c>
       <c r="AM85">
-        <v>12565</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
@@ -16335,13 +16346,13 @@
         <v>8</v>
       </c>
       <c r="AK86">
-        <v>213.74</v>
+        <v>178.28</v>
       </c>
       <c r="AL86">
-        <v>41.343600000000002</v>
+        <v>41.423299999999998</v>
       </c>
       <c r="AM86">
-        <v>8208</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
@@ -16433,13 +16444,13 @@
         <v>8</v>
       </c>
       <c r="AK87">
-        <v>175.58</v>
+        <v>132.38</v>
       </c>
       <c r="AL87">
-        <v>37.107199999999999</v>
+        <v>36.135100000000001</v>
       </c>
       <c r="AM87">
-        <v>62875</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
@@ -16531,13 +16542,13 @@
         <v>8</v>
       </c>
       <c r="AK88">
-        <v>175.12</v>
+        <v>122.6</v>
       </c>
       <c r="AL88">
-        <v>30.057300000000001</v>
+        <v>27.462599999999998</v>
       </c>
       <c r="AM88">
-        <v>62068</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
@@ -16629,13 +16640,13 @@
         <v>8</v>
       </c>
       <c r="AK89">
-        <v>214.98</v>
+        <v>173.1</v>
       </c>
       <c r="AL89">
-        <v>38.541699999999999</v>
+        <v>38.561399999999999</v>
       </c>
       <c r="AM89">
-        <v>6690</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
@@ -16727,13 +16738,13 @@
         <v>8</v>
       </c>
       <c r="AK90">
-        <v>201.9</v>
+        <v>151.68</v>
       </c>
       <c r="AL90">
-        <v>39.719700000000003</v>
+        <v>36.968299999999999</v>
       </c>
       <c r="AM90">
-        <v>9181</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.25">
@@ -16825,13 +16836,13 @@
         <v>8</v>
       </c>
       <c r="AK91">
-        <v>232.9</v>
+        <v>174.8</v>
       </c>
       <c r="AL91">
-        <v>42.302199999999999</v>
+        <v>39.047800000000002</v>
       </c>
       <c r="AM91">
-        <v>62962</v>
+        <v>54716</v>
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
@@ -16923,13 +16934,13 @@
         <v>8</v>
       </c>
       <c r="AK92">
-        <v>159.78</v>
+        <v>136.16</v>
       </c>
       <c r="AL92">
-        <v>31.978100000000001</v>
+        <v>33.461199999999998</v>
       </c>
       <c r="AM92">
-        <v>6417</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.25">
@@ -17021,13 +17032,13 @@
         <v>8</v>
       </c>
       <c r="AK93">
-        <v>206.08</v>
+        <v>145.22</v>
       </c>
       <c r="AL93">
-        <v>38.9542</v>
+        <v>34.061900000000001</v>
       </c>
       <c r="AM93">
-        <v>7007</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.25">
@@ -17119,13 +17130,13 @@
         <v>8</v>
       </c>
       <c r="AK94">
-        <v>220.06</v>
+        <v>174.1</v>
       </c>
       <c r="AL94">
-        <v>30.373999999999999</v>
+        <v>31.630199999999999</v>
       </c>
       <c r="AM94">
-        <v>71722</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.25">
@@ -17217,13 +17228,13 @@
         <v>8</v>
       </c>
       <c r="AK95">
-        <v>202.36</v>
+        <v>155.63999999999999</v>
       </c>
       <c r="AL95">
-        <v>42.781199999999998</v>
+        <v>41.616599999999998</v>
       </c>
       <c r="AM95">
-        <v>6999</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.25">
@@ -17315,13 +17326,13 @@
         <v>8</v>
       </c>
       <c r="AK96">
-        <v>187.66</v>
+        <v>152.88</v>
       </c>
       <c r="AL96">
-        <v>38.162399999999998</v>
+        <v>37.898800000000001</v>
       </c>
       <c r="AM96">
-        <v>7034</v>
+        <v>51125</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
@@ -17413,13 +17424,13 @@
         <v>8</v>
       </c>
       <c r="AK97">
-        <v>199.5</v>
+        <v>142.46</v>
       </c>
       <c r="AL97">
-        <v>35.435000000000002</v>
+        <v>33.229199999999999</v>
       </c>
       <c r="AM97">
-        <v>78804</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
@@ -17511,13 +17522,13 @@
         <v>8</v>
       </c>
       <c r="AK98">
-        <v>188.32</v>
+        <v>140.76</v>
       </c>
       <c r="AL98">
-        <v>37.985500000000002</v>
+        <v>35.718699999999998</v>
       </c>
       <c r="AM98">
-        <v>6745</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
@@ -17609,13 +17620,13 @@
         <v>8</v>
       </c>
       <c r="AK99">
-        <v>182.34</v>
+        <v>138.32</v>
       </c>
       <c r="AL99">
-        <v>35.906199999999998</v>
+        <v>33.717300000000002</v>
       </c>
       <c r="AM99">
-        <v>6495</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.25">
@@ -17707,13 +17718,13 @@
         <v>8</v>
       </c>
       <c r="AK100">
-        <v>159.78</v>
+        <v>122.6</v>
       </c>
       <c r="AL100">
-        <v>31.978100000000001</v>
+        <v>27.462599999999998</v>
       </c>
       <c r="AM100">
-        <v>6417</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.25">
@@ -17805,13 +17816,13 @@
         <v>8</v>
       </c>
       <c r="AK101">
-        <v>206.08</v>
+        <v>173.1</v>
       </c>
       <c r="AL101">
-        <v>38.9542</v>
+        <v>38.561399999999999</v>
       </c>
       <c r="AM101">
-        <v>7007</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
@@ -17903,13 +17914,142 @@
         <v>8</v>
       </c>
       <c r="AK102">
-        <v>187.66</v>
+        <v>151.68</v>
       </c>
       <c r="AL102">
-        <v>38.162399999999998</v>
+        <v>36.968299999999999</v>
       </c>
       <c r="AM102">
-        <v>7034</v>
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <f>AVERAGE(B2:B102)</f>
+        <v>164.15524752475238</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:AM103" si="0">AVERAGE(C2:C102)</f>
+        <v>36.732331683168304</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>14238.584158415842</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="0"/>
+        <v>94.541782178217829</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>13.329700000000004</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>14891.158415841584</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="0"/>
+        <v>94.610297029702949</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="0"/>
+        <v>13.297908910891092</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="0"/>
+        <v>24021.920792079207</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="0"/>
+        <v>96.395445544554406</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="0"/>
+        <v>14.465563366336633</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="0"/>
+        <v>15586.742574257425</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="0"/>
+        <v>96.489306930693118</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="0"/>
+        <v>14.532465346534655</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="0"/>
+        <v>15504.386138613861</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="0"/>
+        <v>134.56079207920794</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="0"/>
+        <v>38.669019801980191</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="0"/>
+        <v>13564.950495049505</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="0"/>
+        <v>140.43801980198018</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="0"/>
+        <v>37.736723762376258</v>
+      </c>
+      <c r="AH103">
+        <f t="shared" si="0"/>
+        <v>13178.990099009901</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" si="0"/>
+        <v>157.10554455445543</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" si="0"/>
+        <v>35.953799009900983</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="0"/>
+        <v>13941.059405940594</v>
       </c>
     </row>
   </sheetData>

--- a/ProcessSimulator/N=50 Graphs.xlsx
+++ b/ProcessSimulator/N=50 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13BE686-0166-453E-A8AF-3C19C7DBA217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F448D52-131B-4435-962F-47005713625E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1035" yWindow="7530" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3333,7 +3333,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time for All 100 Process (n) Lists on All Algorithms Where n=50 </a:t>
+              <a:t> Time for All 100 Process (n) Lists on All Algorithms Where n=50 and Small Execution Time </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6417,7 +6417,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7921,8 +7921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L67" workbookViewId="0">
-      <selection activeCell="AM103" sqref="AM103"/>
+    <sheetView tabSelected="1" topLeftCell="L130" workbookViewId="0">
+      <selection activeCell="AA139" sqref="AA139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProcessSimulator/N=50 Graphs.xlsx
+++ b/ProcessSimulator/N=50 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F448D52-131B-4435-962F-47005713625E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F3025-628F-4E5A-92C8-CF4076BBECC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1035" yWindow="7530" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3333,7 +3333,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time for All 100 Process (n) Lists on All Algorithms Where n=50 and Small Execution Time </a:t>
+              <a:t> Time for All 100 Process (n) Lists on All Algorithms Where n=50 and Varying Execution Time </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6334,7 +6334,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Turn</a:t>
+                  <a:t>Average Normalized Turn</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -7921,8 +7921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L130" workbookViewId="0">
-      <selection activeCell="AA139" sqref="AA139"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
